--- a/data/income_statement/2digits/size/60_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/60_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>60-Programming and broadcasting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>60-Programming and broadcasting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>99708.23874</v>
+        <v>111996.50473</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>116115.47848</v>
+        <v>129544.54812</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>142594.27321</v>
+        <v>154735.65133</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>152982.55526</v>
+        <v>170179.94424</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>156776.00858</v>
+        <v>178794.53155</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>158668.82127</v>
+        <v>181690.20282</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>169116.20469</v>
+        <v>199172.07017</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>184671.66869</v>
+        <v>208118.4807</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>192405.70404</v>
+        <v>228437.41068</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>290309.9798</v>
+        <v>319365.01716</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>289697.23788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>328966.0351</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>330715.611</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>85994.12427</v>
+        <v>96461.47087999999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>107456.86284</v>
+        <v>119260.73921</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>132281.80667</v>
+        <v>143391.81058</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>141046.05718</v>
+        <v>157252.60296</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>146510.0953</v>
+        <v>165274.06502</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>145639.36545</v>
+        <v>166813.06875</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>154239.06423</v>
+        <v>182168.45174</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>168146.25168</v>
+        <v>189280.98392</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>173646.24041</v>
+        <v>207748.15435</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>265184.00955</v>
+        <v>290901.77245</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>271676.91587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>302865.5287</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>300721.255</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>7646.66545</v>
@@ -1037,151 +953,171 @@
         <v>2729.57718</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1988.6906</v>
+        <v>2109.46267</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1583.19126</v>
+        <v>2022.95471</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1580.41182</v>
+        <v>1787.50956</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1781.27853</v>
+        <v>2385.02089</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1492.16478</v>
+        <v>3055.59663</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2593.41405</v>
+        <v>2898.95608</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1345.5333</v>
+        <v>4336.73592</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>964.95246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3206.16482</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9824.055</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6067.449019999999</v>
+        <v>7888.3684</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>6606.252310000001</v>
+        <v>8231.44558</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>7582.889359999999</v>
+        <v>8614.263570000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>9947.807480000001</v>
+        <v>10817.87861</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>8682.722019999999</v>
+        <v>11497.51182</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>11449.044</v>
+        <v>13089.62451</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>13095.86193</v>
+        <v>14618.59754</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15033.25223</v>
+        <v>15781.90015</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>16166.04958</v>
+        <v>17790.30025</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>23780.43695</v>
+        <v>24126.50879</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>17055.36955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22894.34158</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>20170.301</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1213.71427</v>
+        <v>2638.72224</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3824.73114</v>
+        <v>4081.9211</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1971.39215</v>
+        <v>2648.87665</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2196.31969</v>
+        <v>2481.43361</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>432.98524</v>
+        <v>1034.32145</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>376.53788</v>
+        <v>462.94247</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>673.3317099999999</v>
+        <v>904.7823100000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1190.46721</v>
+        <v>1295.60408</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>132.81992</v>
+        <v>498.3053200000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2329.24976</v>
+        <v>2752.42699</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>837.5098399999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4236.47308</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2645.256</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1211.03069</v>
+        <v>2636.03866</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1787.30381</v>
+        <v>2044.49377</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1522.03721</v>
+        <v>2199.06069</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>370.38205</v>
+        <v>655.4959699999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>184.40699</v>
+        <v>785.7432000000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>329.58252</v>
+        <v>408.85234</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>173.26076</v>
+        <v>183.0911</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>527.7244499999999</v>
+        <v>599.77805</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>94.32877999999999</v>
+        <v>280.98328</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1020.81253</v>
+        <v>1052.11176</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>119.84092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3400.45047</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1701.236</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1.62105</v>
@@ -1190,7 +1126,7 @@
         <v>2022.89149</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>421.96928</v>
+        <v>422.4303</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>1644.47878</v>
@@ -1199,28 +1135,33 @@
         <v>203.93976</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2.75778</v>
+        <v>4.49166</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>14.10442</v>
+        <v>121.83492</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>0.28</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5.25</v>
+        <v>24.91193</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>183.24361</v>
+        <v>193.5733</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>63.79562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>63.9118</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>18.999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1.06253</v>
@@ -1238,133 +1179,148 @@
         <v>44.63849</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>44.19758</v>
+        <v>49.59847</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>485.96653</v>
+        <v>599.8562900000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>662.46276</v>
+        <v>695.54603</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>33.24114</v>
+        <v>192.41011</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1125.19362</v>
+        <v>1506.74193</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>653.8733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>772.1108099999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>925.021</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>98494.52447</v>
+        <v>109357.78249</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>112290.74734</v>
+        <v>125462.62702</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>140622.88106</v>
+        <v>152086.77468</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>150786.23557</v>
+        <v>167698.51063</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>156343.02334</v>
+        <v>177760.2101</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>158292.28339</v>
+        <v>181227.26035</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>168442.87298</v>
+        <v>198267.28786</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>183481.20148</v>
+        <v>206822.87662</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>192272.88412</v>
+        <v>227939.10536</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>287980.73004</v>
+        <v>316612.59017</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>288859.72804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>324729.56202</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>328070.355</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>76338.58053000001</v>
+        <v>84506.91029</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>82968.78303000001</v>
+        <v>92205.46086000001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>105383.85595</v>
+        <v>116500.28426</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>117861.29648</v>
+        <v>131872.03623</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>120608.65607</v>
+        <v>136705.8521</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>123370.06857</v>
+        <v>144678.76699</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>130323.59919</v>
+        <v>157840.96512</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>147621.70226</v>
+        <v>176121.89906</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>142888.8643</v>
+        <v>179923.42414</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>221368.46851</v>
+        <v>245847.33405</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>264865.17261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>299583.74055</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>302411.74</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>57.9421</v>
+        <v>89.79418</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>13.22208</v>
+        <v>40.12943</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>589.2959599999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>55.38975</v>
+        <v>229.86201</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>147.55555</v>
+        <v>566.6576699999999</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>118.52181</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>304.88678</v>
+        <v>815.46657</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>213.92481</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>170.49331</v>
+        <v>421.17792</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>669.61727</v>
@@ -1372,101 +1328,116 @@
       <c r="M15" s="48" t="n">
         <v>3119.27859</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>477.185</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1282.18952</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>8267.660550000001</v>
+        <v>8444.35765</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>5450.596570000001</v>
+        <v>6115.18706</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1454.2312</v>
+        <v>1668.45155</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>8869.175660000001</v>
+        <v>9068.868710000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7024.60718</v>
+        <v>8684.152300000002</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9511.011779999999</v>
+        <v>9638.3815</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>640.2154499999999</v>
+        <v>808.5018200000001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3156.32833</v>
+        <v>3420.93784</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4323.20887</v>
+        <v>4484.29586</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>17752.57081</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>6668.692</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>74493.22748</v>
+        <v>82619.62642</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>74651.90040000001</v>
+        <v>83684.97378</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>99196.52545999999</v>
+        <v>109467.44583</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>113264.97854</v>
+        <v>126829.30627</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>111386.56723</v>
+        <v>126864.96809</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>116075.91973</v>
+        <v>135725.07303</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>120410.77563</v>
+        <v>147004.27927</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>146538.64366</v>
+        <v>174828.64483</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>138973.31193</v>
+        <v>175492.57765</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>215261.59289</v>
+        <v>239579.37144</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>243752.35678</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>278470.92472</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>289623.7</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>505.22143</v>
+        <v>515.30017</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>36</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>147.43796</v>
+        <v>328.35541</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3086.69699</v>
+        <v>3144.4164</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>205.35763</v>
@@ -1475,10 +1446,10 @@
         <v>151.01985</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>96.925</v>
+        <v>382.83778</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>228.91834</v>
+        <v>270.8276</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>588.73073</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>240.96643</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>5642.163</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>22155.94394</v>
+        <v>24850.8722</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>29321.96431</v>
+        <v>33257.16616</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>35239.02511</v>
+        <v>35586.49042</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>32924.93908999999</v>
+        <v>35826.4744</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>35734.36727</v>
+        <v>41054.358</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>34922.21482</v>
+        <v>36548.49336</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>38119.27379</v>
+        <v>40426.32274</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>35859.49922</v>
+        <v>30700.97756</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>49384.01982</v>
+        <v>48015.68122</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>66612.26153</v>
+        <v>70765.25612000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>23994.55543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>25145.82147</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>25658.615</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>31593.38971</v>
+        <v>37710.37487000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>39737.70965</v>
+        <v>46808.72445</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>45024.07373999999</v>
+        <v>53455.40440000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>46055.73362</v>
+        <v>57325.48071</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>51055.60058</v>
+        <v>59226.26882</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>54088.91908</v>
+        <v>70964.22067</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>54006.94581</v>
+        <v>71465.47756999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>70199.96582</v>
+        <v>86058.95425999998</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>70414.26736</v>
+        <v>92575.41552000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>94798.94098</v>
+        <v>111405.30032</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>102449.76348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>120215.25723</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>127320.369</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>64.00734</v>
@@ -1589,7 +1575,7 @@
         <v>0.50847</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>250.23389</v>
+        <v>259.42269</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>51.49011</v>
@@ -1606,173 +1592,198 @@
       <c r="M21" s="48" t="n">
         <v>0.33827</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2664.18935</v>
+        <v>4240.532310000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4929.51022</v>
+        <v>6379.06647</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5515.366099999999</v>
+        <v>6290.819570000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6791.836189999999</v>
+        <v>8859.42748</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8213.80366</v>
+        <v>8625.6805</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>8063.02699</v>
+        <v>11221.6724</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>7105.962280000001</v>
+        <v>9708.454659999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8255.439319999999</v>
+        <v>10318.32815</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>13408.9947</v>
+        <v>15007.24331</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>19625.38643</v>
+        <v>21704.12618</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>18090.66006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>21396.27626</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>19054.068</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>28865.19302</v>
+        <v>33405.83522</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>34694.41842</v>
+        <v>40315.87697</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>39489.8242</v>
+        <v>47145.70139</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>39263.89743</v>
+        <v>48466.05323</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>42841.28845</v>
+        <v>50600.07984999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>45775.65820000001</v>
+        <v>59483.12558</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>46849.49342</v>
+        <v>61705.53279999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>61898.3545</v>
+        <v>75694.45411000001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>56954.81909</v>
+        <v>77517.71864000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>75073.19771000001</v>
+        <v>89600.81730000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>84358.76515000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>98818.64269999998</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>108266.301</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-9437.44577</v>
+        <v>-12859.50267</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-10415.74534</v>
+        <v>-13551.55829</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-9785.048629999999</v>
+        <v>-17868.91398</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-13130.79453</v>
+        <v>-21499.00631</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-15321.23331</v>
+        <v>-18171.91082</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-19166.70426</v>
+        <v>-34415.72731</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-15887.67202</v>
+        <v>-31039.15483</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-34340.4666</v>
+        <v>-55357.97670000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-21030.24754</v>
+        <v>-44559.7343</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-28186.67945</v>
+        <v>-40640.0442</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-78455.20805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-95069.43575999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-101661.754</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1846.23238</v>
+        <v>5358.02295</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2187.12956</v>
+        <v>9192.65293</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2452.70792</v>
+        <v>11379.40282</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1521.5262</v>
+        <v>7175.48579</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2446.62061</v>
+        <v>10846.91971</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2006.49488</v>
+        <v>24976.80955</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2387.62867</v>
+        <v>28190.99053</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3119.0003</v>
+        <v>11152.69583</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3217.46699</v>
+        <v>8919.067949999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9107.14839</v>
+        <v>56030.35894</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8276.378259999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>48321.101</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>38935.915</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0.02613</v>
+        <v>153.10482</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>96.46716000000001</v>
@@ -1781,10 +1792,10 @@
         <v>22.96209</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>37.63168</v>
+        <v>436.92858</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>28.06001</v>
+        <v>1288.15929</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>0</v>
@@ -1796,16 +1807,21 @@
         <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3e-05</v>
+        <v>197.71643</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>296.49668</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>168.64567</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>316.73909</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>730.67904</v>
+        <v>1294.7124</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>565.87179</v>
+        <v>1103.49334</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>526.4270799999999</v>
+        <v>1651.15359</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>472.76726</v>
+        <v>1493.93373</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>419.46703</v>
+        <v>2367.6162</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>499.30439</v>
+        <v>18519.79447</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>499.24051</v>
+        <v>22239.93311</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>716.18152</v>
+        <v>2137.89247</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>674.25699</v>
+        <v>2245.68733</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2001.05925</v>
+        <v>8704.047030000002</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1828.52915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>11160.19756</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>9857.896000000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>3.547</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1.3481</v>
+        <v>17.0571</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>24.39</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6.408</v>
+        <v>427.19664</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>34.3905</v>
+        <v>63.17157</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>178.66878</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>272.93716</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>57.27322</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>49.51627</v>
+        <v>745.51627</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>166.12082</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>624.64059</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1.35784</v>
+        <v>2.05648</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7.26424</v>
+        <v>7.675059999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>20.23523</v>
+        <v>63.09238000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>31.93416</v>
+        <v>250.73157</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>31.26375</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>40.03145000000001</v>
+        <v>432.44302</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>41.64837</v>
+        <v>422.16086</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>49.37976999999999</v>
+        <v>338.12169</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>62.96416000000001</v>
+        <v>333.73252</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>54.06071</v>
+        <v>333.45623</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>68.98538000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3265.33924</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>344.756</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>116.24353</v>
+        <v>592.54221</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>241.43257</v>
+        <v>2420.50658</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>394.33935</v>
+        <v>3579.43253</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>174.67276</v>
+        <v>1701.96279</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>544.0930400000001</v>
+        <v>5472.66858</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>233.43939</v>
+        <v>792.0216100000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>553.3809100000001</v>
+        <v>1693.14758</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>233.7007</v>
+        <v>1258.74771</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1463.48825</v>
+        <v>2413.56359</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3862.13797</v>
+        <v>41883.01855000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>851.37918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>26625.2192</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>18420.104</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2048,16 +2094,16 @@
         <v>19.95786</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0</v>
+        <v>199.19721</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0</v>
+        <v>77.81429</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>114.8739</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0</v>
+        <v>84.37149000000001</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>7.51358</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>10.28222</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.721</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>996.60387</v>
+        <v>3451.65476</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1351.57697</v>
+        <v>5471.41527</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1390.8491</v>
+        <v>5765.66995</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>812.5209100000001</v>
+        <v>3200.62366</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1414.16511</v>
+        <v>2423.5687</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1169.78693</v>
+        <v>3626.72022</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1290.33887</v>
+        <v>3337.3211</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2115.87625</v>
+        <v>7141.13474</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>972.4033900000001</v>
+        <v>3824.45709</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3134.91891</v>
+        <v>4161.149179999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>5343.367929999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>6331.211929999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>10307.289</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>297.05378</v>
+        <v>767.3132099999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>500.64467</v>
+        <v>939.18364</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>686.01174</v>
+        <v>1097.98682</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>739.5276700000001</v>
+        <v>1225.8976</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>698.34056</v>
+        <v>2776.36804</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>506.24733</v>
+        <v>1249.31113</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>711.22172</v>
+        <v>1899.14301</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>353.03932</v>
+        <v>1603.00184</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1570.22886</v>
+        <v>3678.6188</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7064.79678</v>
+        <v>47958.18716</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2418.96808</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>28524.99057</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>43561.475</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1.70993</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4.37946</v>
+        <v>4.59246</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>15.44554</v>
+        <v>15.76039</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6.74798</v>
+        <v>7.1083</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9.98743</v>
+        <v>19.04509</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9.41999</v>
+        <v>45.67897</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8.42737</v>
+        <v>9.214289999999998</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>21.52729</v>
+        <v>22.75811</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>25.57504</v>
+        <v>53.87703</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>24.1305</v>
+        <v>118.68725</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>23.8541</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>76.55468</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>27.482</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>104.04032</v>
+        <v>190.27201</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>75.16023000000001</v>
+        <v>130.57754</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>182.97487</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8.10046</v>
+        <v>25.03818</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>162.22487</v>
+        <v>175.71567</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>0</v>
+        <v>81.58769000000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>0</v>
+        <v>46.77279</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>24.45418</v>
+        <v>283.62871</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>467.53</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>522.29162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1053.06833</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.00135</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>7.34541</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>91.73683</v>
+        <v>433.64069</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>379.25363</v>
+        <v>759.9044200000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>362.7941</v>
+        <v>772.9290100000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>224.8508</v>
+        <v>691.03685</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>413.02393</v>
+        <v>2398.33411</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>276.40145</v>
+        <v>762.0730399999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>627.10657</v>
+        <v>1174.31966</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>118.50079</v>
+        <v>860.88422</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1469.17368</v>
+        <v>2359.56214</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5544.903109999999</v>
+        <v>46340.7167</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1001.29692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>26523.80693</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>41850.377</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2369,7 +2455,7 @@
         <v>7.94173</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>6.40354</v>
+        <v>8.334629999999999</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>99.56535000000001</v>
+        <v>141.68923</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>35.15396</v>
+        <v>37.41183</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>124.58215</v>
+        <v>126.10747</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>257.25844</v>
+        <v>260.14428</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>104.91638</v>
+        <v>175.08522</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>209.85732</v>
+        <v>347.47177</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>71.65616</v>
+        <v>664.80465</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>213.01124</v>
+        <v>719.35951</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>51.02596</v>
+        <v>981.5509199999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1021.52125</v>
+        <v>1024.54129</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>864.18003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>864.2152199999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1682.598</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>600.9546799999999</v>
+        <v>2303.83198</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>811.63162</v>
+        <v>5901.382630000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1279.74337</v>
+        <v>8095.541510000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>926.28827</v>
+        <v>1731.89027</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>803.5198</v>
+        <v>9935.960560000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>826.0332</v>
+        <v>23219.18575</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>635.61179</v>
+        <v>21364.64713</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1194.19999</v>
+        <v>3349.24145</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1382.17202</v>
+        <v>27293.0151</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3030.31346</v>
+        <v>7954.444140000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3752.64606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>11102.78882</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>15678.051</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>584.53254</v>
+        <v>2287.40984</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>764.37233</v>
+        <v>5854.12334</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1277.06122</v>
+        <v>8048.45795</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>921.95528</v>
+        <v>1727.55728</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>795.11099</v>
+        <v>9927.551750000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>811.5992199999999</v>
+        <v>23200.52032</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>623.70664</v>
+        <v>21348.49039</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1180.83059</v>
+        <v>3335.87205</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1350.61678</v>
+        <v>27190.87046</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2972.60854</v>
+        <v>5289.27826</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3730.12262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11080.26538</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>15635.624</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>16.42214</v>
@@ -2555,7 +2666,7 @@
         <v>47.25928999999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2.68215</v>
+        <v>47.08356</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>4.33299</v>
@@ -2564,223 +2675,253 @@
         <v>8.408809999999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>14.43398</v>
+        <v>18.66543</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>11.90515</v>
+        <v>16.15674</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>13.3694</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>31.55524</v>
+        <v>102.14464</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>57.70492</v>
+        <v>2665.16588</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>22.52344</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>42.427</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-8489.22185</v>
+        <v>-10572.62491</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-9540.89207</v>
+        <v>-11199.47163</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-9298.09582</v>
+        <v>-15683.03949</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-13275.08427</v>
+        <v>-17281.30839</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-14376.47306</v>
+        <v>-20037.31971</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-18492.48991</v>
+        <v>-33907.41464</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-14846.87686</v>
+        <v>-26111.95444</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-32768.70561</v>
+        <v>-49157.52416</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-20765.18143</v>
+        <v>-66612.30025</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-29174.6413</v>
+        <v>-40522.31656</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-76350.44392999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-86376.11415000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-121965.365</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>412.9781600000001</v>
+        <v>557.1627</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1331.57918</v>
+        <v>1926.96872</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1183.82706</v>
+        <v>1436.09253</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1276.94287</v>
+        <v>2255.73374</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1031.8471</v>
+        <v>1246.23265</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1253.81588</v>
+        <v>20492.46239</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>449.23662</v>
+        <v>1115.3618</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2907.27294</v>
+        <v>3663.71242</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1966.006</v>
+        <v>4651.00158</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1970.71496</v>
+        <v>4218.62084</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>12153.53772</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>17555.72658</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5744.713</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>5.74172</v>
+        <v>5.860910000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0.38144</v>
+        <v>102.80163</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>169.57665</v>
+        <v>216.01071</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>39.00256</v>
+        <v>217.72765</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>0.44291</v>
+        <v>2.36683</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>7.627140000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17.39342</v>
+        <v>19.17471</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>183.30836</v>
+        <v>183.47233</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4.61579</v>
+        <v>4.757470000000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>70.86561999999999</v>
+        <v>71.54964</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>473.68422</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>701.10402</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>549.975</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>407.23644</v>
+        <v>551.30179</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1331.19774</v>
+        <v>1824.16709</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1014.25041</v>
+        <v>1220.08182</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1237.94031</v>
+        <v>2038.00609</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1031.40419</v>
+        <v>1243.86582</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1246.18874</v>
+        <v>20484.83525</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>431.8432</v>
+        <v>1096.18709</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2723.96458</v>
+        <v>3480.24009</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1961.39021</v>
+        <v>4646.244110000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1899.84934</v>
+        <v>4147.0712</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>11679.8535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>16854.62256</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>5194.738</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1103.4383</v>
+        <v>1143.38701</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1959.23376</v>
+        <v>2627.93681</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>12333.60137</v>
+        <v>56524.69026</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3548.70541</v>
+        <v>4043.64182</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1873.77276</v>
+        <v>2791.04093</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9216.888660000001</v>
+        <v>13509.6714</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1996.52594</v>
+        <v>5049.26081</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8602.320210000002</v>
+        <v>17285.14004</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2986.87866</v>
+        <v>4459.519310000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>11068.93886</v>
+        <v>19129.09257</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>10914.03994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>14439.80989</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>31608.49</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5.7695</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>34.908</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>413.46333</v>
+        <v>429.63669</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>458.73064</v>
+        <v>477.30318</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1046.36348</v>
+        <v>1091.6853</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>403.73512</v>
+        <v>564.49263</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>176.87371</v>
+        <v>543.38467</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>813.9218</v>
+        <v>918.0385200000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>200.11806</v>
+        <v>462.96626</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>179.84901</v>
+        <v>211.88886</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>169.61475</v>
+        <v>308.95524</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>412.01826</v>
+        <v>416.21674</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>197.49332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>790.5744</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>25888.388</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>684.20547</v>
+        <v>707.98082</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1464.24505</v>
+        <v>2114.37556</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>11250.30178</v>
+        <v>55396.06885</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3144.97029</v>
+        <v>3479.14919</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1679.40781</v>
+        <v>2230.16502</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>8382.70261</v>
+        <v>12571.36863</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1795.58372</v>
+        <v>4585.47039</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>8422.4712</v>
+        <v>17073.25118</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2816.46391</v>
+        <v>4149.76407</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>10656.9206</v>
+        <v>18712.87583</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>10716.54662</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>13649.23549</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>5685.194</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-9179.681990000001</v>
+        <v>-11158.84922</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-10168.54665</v>
+        <v>-11900.43972</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-20447.87013</v>
+        <v>-70771.63722</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-15546.84681</v>
+        <v>-19069.21647</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-15218.39872</v>
+        <v>-21582.12799</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-26455.56269</v>
+        <v>-26924.62365</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-16394.16618</v>
+        <v>-30045.85345</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-38463.75288</v>
+        <v>-62778.95178</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-21786.05409</v>
+        <v>-66420.81798000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-38272.8652</v>
+        <v>-55432.78829</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-75110.94615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-83260.19746000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-147829.142</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>800.35729</v>
+        <v>907.75668</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>996.61175</v>
+        <v>1254.84856</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>928.1647800000001</v>
+        <v>1457.25444</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1007.39598</v>
+        <v>1476.37659</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1086.81021</v>
+        <v>1951.29627</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1253.6542</v>
+        <v>1702.54733</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1276.42663</v>
+        <v>2005.37941</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1235.39242</v>
+        <v>1654.64219</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1149.25062</v>
+        <v>1556.97688</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2508.48162</v>
+        <v>3220.01275</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2184.43308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3752.04381</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3820.821</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-9980.039280000001</v>
+        <v>-12066.6059</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-11165.1584</v>
+        <v>-13155.28828</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-21376.03491</v>
+        <v>-72228.89165999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-16554.24279</v>
+        <v>-20545.59306</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-16305.20893</v>
+        <v>-23533.42426</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-27709.21689</v>
+        <v>-28627.17098</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-17670.59281</v>
+        <v>-32051.23286</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-39699.1453</v>
+        <v>-64433.59397</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-22935.30471</v>
+        <v>-67977.79485999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-40781.34682</v>
+        <v>-58652.80104</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-77295.37923000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-87012.24127000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-151649.963</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1165</v>
+        <v>1216</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1201</v>
+        <v>1266</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1240</v>
+        <v>1308</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1214</v>
+        <v>1285</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1213</v>
+        <v>1296</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1222</v>
+        <v>1307</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1212</v>
+        <v>1314</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1198</v>
+        <v>1286</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1201</v>
+        <v>1313</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1289</v>
+        <v>1348</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1346</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>